--- a/Scrip.xlsx
+++ b/Scrip.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91908\Documents\Raja\Share market\Analysis\Trendlyne\Data\Scrip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37045C3-9803-417D-B8D6-4CEB3BE15AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C2894F-1C9C-4DCB-9207-B5814616FABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Client" sheetId="2" r:id="rId2"/>
     <sheet name="ActiveTrader" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Superstars" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -93,12 +93,6 @@
     <t>UBS </t>
   </si>
   <si>
-    <t>HDFC </t>
-  </si>
-  <si>
-    <t>SUNDARAM </t>
-  </si>
-  <si>
     <t>BLACKROCK </t>
   </si>
   <si>
@@ -121,6 +115,12 @@
   </si>
   <si>
     <t>KALYANKJIL</t>
+  </si>
+  <si>
+    <t>Superstars</t>
+  </si>
+  <si>
+    <t>GOLDMAN</t>
   </si>
 </sst>
 </file>
@@ -179,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -188,6 +188,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,13 +475,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -486,7 +491,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -499,7 +504,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -604,37 +609,37 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +653,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -673,23 +678,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1DD650-7D49-42B7-B7BB-B7DFE448A879}">
-  <dimension ref="A6:A7"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="6"/>
+    </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A6" s="7"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
